--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_unify_node_index/cnn_validation_SubRCM_pcc_by_Spatio_Spectral_Decomposition_unified_node.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_unify_node_index/cnn_validation_SubRCM_pcc_by_Spatio_Spectral_Decomposition_unified_node.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_unify_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF7F9BE-81C7-4983-AA57-396E2DDC62F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70057E-14A8-4128-A1E1-9A5BBBA5E9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
     <sheet name="summary_" sheetId="9" r:id="rId2"/>
-    <sheet name="GLF_sr_1" sheetId="1" r:id="rId3"/>
-    <sheet name="GLF_sr_0.75" sheetId="3" r:id="rId4"/>
-    <sheet name="GLF_sr_0.5" sheetId="4" r:id="rId5"/>
-    <sheet name="GLF_sr_0.3" sheetId="5" r:id="rId6"/>
-    <sheet name="GLF_sr_0.2" sheetId="6" r:id="rId7"/>
-    <sheet name="GLF_sr_0.1" sheetId="7" r:id="rId8"/>
-    <sheet name="GLF_sr_0.05" sheetId="8" r:id="rId9"/>
+    <sheet name="sr_1" sheetId="1" r:id="rId3"/>
+    <sheet name="sr_0.75" sheetId="3" r:id="rId4"/>
+    <sheet name="sr_0.5" sheetId="4" r:id="rId5"/>
+    <sheet name="sr_0.3" sheetId="5" r:id="rId6"/>
+    <sheet name="sr_0.2" sheetId="6" r:id="rId7"/>
+    <sheet name="sr_0.1" sheetId="7" r:id="rId8"/>
+    <sheet name="sr_0.05" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,6 +173,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -554,9 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="D1:D15 A1:A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
